--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_298.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_298.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.52, 47.9)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:09.900000', '0:00:34.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:36.040000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1152173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['B', 'E', 'E/7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[('0:00:14.402743', '0:00:18.779705')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.201473', '0:00:13.148866')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:03.605464', '0:00:10.966190')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.935986', '0:00:12.498707')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07146401985111663</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[('0:01:27.680000', '0:01:38.020000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(121.08, 122.36)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A#:maj', 'D#:min', 'B:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[('0:00:05.920000', '0:00:09.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(64.32, 66.92)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1030405405405405</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.563446, 27.290249)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(30.378072, 35.532902)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
